--- a/medicine/Enfance/Cécile_d'Argel/Cécile_d'Argel.xlsx
+++ b/medicine/Enfance/Cécile_d'Argel/Cécile_d'Argel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_d%27Argel</t>
+          <t>Cécile_d'Argel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cécile d'Argel est une romancière française, née le 12 décembre 1902 et morte le 27 novembre 1988.
 Elle est aussi connue sous le pseudonyme d'Ilka Rezette.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_d%27Argel</t>
+          <t>Cécile_d'Argel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Romans
-Le Pays perdu
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le Pays perdu
 Pour sauver le prince...
-Pampelune chien trouvé
-Nouvelle
-Le Dernier Cognac de monsieur Poitevin, dans Meurtres en pays charentais, Paris, Librairie des Champs-Élysées, collection Le Masque no 1065, 1969 (anthologie avec des nouvelles d'Ilka Rezette, de Pierre Frachet, de Philippe Verteuil et de Maurice Bastide.)</t>
+Pampelune chien trouvé</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cécile_d'Argel</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_d%27Argel</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nouvelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Dernier Cognac de monsieur Poitevin, dans Meurtres en pays charentais, Paris, Librairie des Champs-Élysées, collection Le Masque no 1065, 1969 (anthologie avec des nouvelles d'Ilka Rezette, de Pierre Frachet, de Philippe Verteuil et de Maurice Bastide.)</t>
         </is>
       </c>
     </row>
